--- a/data/input_test.xlsx
+++ b/data/input_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\민태희\Desktop\github\isbr-auto-questionnaire\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5612FD3-D8FB-48F5-8CBD-34911D7002AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEDAAF3-8735-4431-9BA8-834A413A5D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1494CCB1-EDDE-47A3-9579-60EB3E7365BC}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>[트렌드를 반영한 아이디어로 만든 분석적 사고]현재 전 세계적으로 친환경 제품 소비를 추구하는 소비자가 증가하고 있으며, ESG 수출 장벽이 강화되는 추세입니다. 하지만 중소기업은 ESG 경영 전환에 애로사항이 있다는 보고서를 읽었고, 저는 중소벤처기업의 글로벌 경쟁력 강화에 도움이 되고자 정책 아이디어 공모전에 출전했습니다.중소기업이 ESG 경영에 있어 가장 필요하지만 어려운 점이 ‘친환경 패키지’라는 것을 파악해 ‘친환경 패키지 바우처 지원’의 아이디어를 구상했습니다. 제조 중소기업과 친환경 패키지 중소기업을 연결하여 상생협력 구축 체계를 만들고, 해외 진출을 도울 수 있는 아이디어를 제시했습니다. 아이디어는 구체적이고 실천 가능성이 높다는 피드백을 받으며 대상을 수상했습니다.저는 니즈 파악부터 개선 방안 기획까지의 과정에서 ‘분석적 사고’라는 직무 역량을 만들었습니다. 앞으로도 창의성을 바탕으로 개선 방안을 제시하고, 기업과 국민의 행복을 더하는 직원이 되겠습니다.</t>
   </si>
   <si>
-    <t>[앞에서 이끄는 리더에서 함께 여유를 만드는 리더로]중소기업의 해외 마케팅 지원 프로젝트를 시작하며 저는 리더로서 다양한 결과물을 만들고자 진행률에 집중했습니다. 온라인 홍보물 제작을 목표로 회의를 진행했지만, 회의 이후에 한 팀원이 프로젝트의 속도를 따라오기 힘들다며 프로젝트를 포기하겠다는 의사를 밝혔습니다.이는 진행 속도에 대한 의견 차이와 갈등으로 이어졌고, 저는 의욕적인 마음에 앞에서 이끌기만 했다는 것을 느꼈습니다. 그래서 의사소통을 보완하며 ‘여유로운 리더십’을 전달하려고 했습니다. 먼저, 회의 안건을 미리 공지하여 팀원들에게 생각할 여유를 주었습니다. 그리고 매 회의의 내용을 정리하여 진행 방향을 공유했습니다. 이를 통해 더 많은 아이디어가 도출되며 캐릭터 만화, 퀴즈 등 창의적인 홍보물로 팀 프로젝트 1위를 달성했습니다.팀 활동에 있어서 의사소통의 중요성을 크게 깨닫게 된 경험이었으며, 의사소통 부족 문제를 능동적으로 해결하는 리더십을 배울 수 있었습니다.</t>
-  </si>
-  <si>
     <t>[다각도로 원인을 파악하고, 근본적으로 해결하는 과정]멘토단에서 초, 중, 고등학생들을 위한 전공 프로그램을 운영하며 프로그램이 예상보다 빨리 끝나 공백이 발생한다는 문제가 있었습니다. 처음엔 단순히 수업의 양이 부족하다고 생각하여 내용을 추가했지만, 문제는 계속 반복되었습니다. 원인을 정확하게 파악하기 위해 입학처 선생님과 수강생에게 피드백을 받았고, 수업을 녹화해 분석했습니다.피드백을 통해 학년에 따른 수업 내용의 차이가 필요함을 알게 되었고, 녹화를 통해 학생들의 질문이 예상보다 적다는 공통점을 파악했습니다. 이에 학년별 프로그램 차별화를 통해 수업의 질을 높이고, 학생들의 흥미를 자극하는 수업을 기획했습니다. 이를 통해 수업 공백을 줄였고, 학생들의 만족도를 약 50%에서 90%로 향상할 수 있었습니다.앞으로의 업무 과정에서 발생하는 문제의 원인은 하나보다 많을 것입니다. 여러 측면에서 문제의 원인을 파악하고, 이를 근본적으로 보완하며 최선의 결과에 도달하겠습니다.</t>
   </si>
   <si>
@@ -267,6 +264,10 @@
   </si>
   <si>
     <t>자소서4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[앞에서 이끄는 리더에서 함께 여유를 만드는 리더로]중소기업의 해외 마케팅 지원 프로젝트를 시작하며 저는 리더로서 다양한 결과물을 만들고자 진행률에 집중했습니다. 온라인 홍보물 제작을 목표로 회의를 진행했지만, 회의 이후에 한 팀원이 프로젝트의 속도를 따라오기 힘들다며 프로젝트를 포기하겠다는 의사를 밝혔습니다.이는 진행 속도에 대한 의견 차이와 갈등으로 이어졌고, 저는 의욕적인 마음에 앞에서 이끌기만 했다는 것을 느꼈습니다. 그래서 의사소통을 보완하며 ‘여유로운 리더십’을 전달하려고 했습니다. 먼저, 회의 안건을 미리 공지하여 팀원들에게 생각할 여유를 주었습니다. 그리고 매 회의의 내용을 정리하여 진행 방향을 공유했습니다. 이를 통해 더 많은 아이디어가 도출되며 캐릭터 만화, 퀴즈 등 창의적인 홍보물로 팀 프로젝트 1위를 달성했습니다.팀 활동에 있어서 의사소통의 중요성을 크게 깨닫게 된 경험이었으며, 의사소통 부족 문제를 능동적으로 해결하는 리더십을 배울 수 있었습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +690,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -753,16 +754,16 @@
         <v>42</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
@@ -824,13 +825,13 @@
         <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
@@ -889,16 +890,16 @@
         <v>49</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
@@ -957,16 +958,16 @@
         <v>49</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_test.xlsx
+++ b/data/input_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\민태희\Desktop\github\isbr-auto-questionnaire\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-auto-questionnaire\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEDAAF3-8735-4431-9BA8-834A413A5D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7FE1F-D199-47E4-B491-C19DA1BE400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1494CCB1-EDDE-47A3-9579-60EB3E7365BC}"/>
+    <workbookView xWindow="39260" yWindow="3840" windowWidth="17080" windowHeight="16330" xr2:uid="{1494CCB1-EDDE-47A3-9579-60EB3E7365BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,6 @@
     <t>사무보조</t>
   </si>
   <si>
-    <t>[트렌드를 반영한 아이디어로 만든 분석적 사고]현재 전 세계적으로 친환경 제품 소비를 추구하는 소비자가 증가하고 있으며, ESG 수출 장벽이 강화되는 추세입니다. 하지만 중소기업은 ESG 경영 전환에 애로사항이 있다는 보고서를 읽었고, 저는 중소벤처기업의 글로벌 경쟁력 강화에 도움이 되고자 정책 아이디어 공모전에 출전했습니다.중소기업이 ESG 경영에 있어 가장 필요하지만 어려운 점이 ‘친환경 패키지’라는 것을 파악해 ‘친환경 패키지 바우처 지원’의 아이디어를 구상했습니다. 제조 중소기업과 친환경 패키지 중소기업을 연결하여 상생협력 구축 체계를 만들고, 해외 진출을 도울 수 있는 아이디어를 제시했습니다. 아이디어는 구체적이고 실천 가능성이 높다는 피드백을 받으며 대상을 수상했습니다.저는 니즈 파악부터 개선 방안 기획까지의 과정에서 ‘분석적 사고’라는 직무 역량을 만들었습니다. 앞으로도 창의성을 바탕으로 개선 방안을 제시하고, 기업과 국민의 행복을 더하는 직원이 되겠습니다.</t>
-  </si>
-  <si>
     <t>[다각도로 원인을 파악하고, 근본적으로 해결하는 과정]멘토단에서 초, 중, 고등학생들을 위한 전공 프로그램을 운영하며 프로그램이 예상보다 빨리 끝나 공백이 발생한다는 문제가 있었습니다. 처음엔 단순히 수업의 양이 부족하다고 생각하여 내용을 추가했지만, 문제는 계속 반복되었습니다. 원인을 정확하게 파악하기 위해 입학처 선생님과 수강생에게 피드백을 받았고, 수업을 녹화해 분석했습니다.피드백을 통해 학년에 따른 수업 내용의 차이가 필요함을 알게 되었고, 녹화를 통해 학생들의 질문이 예상보다 적다는 공통점을 파악했습니다. 이에 학년별 프로그램 차별화를 통해 수업의 질을 높이고, 학생들의 흥미를 자극하는 수업을 기획했습니다. 이를 통해 수업 공백을 줄였고, 학생들의 만족도를 약 50%에서 90%로 향상할 수 있었습니다.앞으로의 업무 과정에서 발생하는 문제의 원인은 하나보다 많을 것입니다. 여러 측면에서 문제의 원인을 파악하고, 이를 근본적으로 보완하며 최선의 결과에 도달하겠습니다.</t>
   </si>
   <si>
@@ -230,22 +227,13 @@
     <t>대학에서 경영학과 중어중문학을 전공하며 배운 지식들을 실무에 적용하기 위해 ○○공사에서 인턴과 계약직 사원으로 근무했습니다. 국제곡물정보와 해외농산물수입정보를 조사하며 농산물 가격 변동을 파악하고 선제적으로 관리함으로써, 수급관리에 대한 실무 경험을 쌓고자 노력하였습니다.특히 농산물수입동향보고서 작성과 해외수입정보검증회의 개최를 통해 수입농산물과 관세제도에 대한 전문지식을 쌓았으며, 외신보도모니터링과 해외 모니터들과의 소통을 통해 실무적 외국어 능력도 향상시켰습니다. 이를 통해 농산물수급관리와 수입동향조사에 필요한 분석력 및 전문성을 갖출 수 있었습니다.입사 후 이러한 경험을 바탕으로 공사의 핵심사업인 농산물 수급관리 업무에 기여하고자 합니다. 수입정보조사와 관세제도에 대한 지식을 활용해 시장 변화에 선제적으로 대응할 수 있는 전략을 수립하고, 외국어 소통능력을 적극 활용하여 글로벌 농산물시장에 대한 이해를 넓혀 수급 안정화에 이바지하는 인재가 되겠습니다.</t>
   </si>
   <si>
-    <t>외국인유학생서포터즈 활동 당시, 중국인 팀원의 소극적인 태도로 인해 다른 팀원들이 그 친구의 퇴출을 주장하며 갈등이 발생했습니다. 당시 저는 팀원들의 의견을 존중하면서도 서포터즈 간의 원만한 관계 유지를 위해 갈등을 해결하고자 노력했습니다.우선 중국인 친구와의 면담을 통해 한국어가 서툴러 회의내용을 이해하고 맡은 업무 수행하는데 어려움을 겪고 있다는 점을 알게 되었습니다. 따라서 팀원들에게 상황을 설명하고, 퇴출보다는 그 친구의 역할을 조정하는 방향으로 함께 해결해보자고 설득했습니다. 이후 그 친구에게 회의내용을 중국어로 다시 설명해주고, 중국어 통번역 업무를 맡기며 역할을 재조정했습니다. 그 결과 중국인 친구는 활동에 적극적으로 참여하는 모습을 보였고, 팀원들 간의 관계도 원만하게 유지되었습니다.이 경험을 통해 갈등 상황속에서 소통과 배려의 중요성을 깨달았으며, 입사 후에도 부서원들과 상호 이해를 바탕으로 협력하여 조직에 긍정적인 영향을 미치고자 합니다.</t>
-  </si>
-  <si>
     <t>영어라디오방송을 진행하며, 낮은 프로그램 청취율 문제를 해결하고자 했던 경험이 있습니다. 처음에는 청취율 상승을 목표로 프로그램 홍보를 강화하는 데 집중했지만, 홍보만으로는 청취율이 크게 개선되지 않아 원인 파악에 실패했음을 깨달았습니다.청취자들의 요구를 제대로 이해하기 위해, 영어라디오를 듣는 목적을 분석했습니다. 이를 통해 대부분의 청취자들이 영어학습을 위해 라디오를 청취한다는 것을 알게 되었고 따라서 영어학습 콘텐츠를 강화하는 것이 필요하다고 판단했습니다. 그 결과 영어표현을 설명하는 ‘디스 모닝 잉글리시’라는 콘텐츠를 제작해 라디오 프로그램에 추가했고, 콘텐츠를 오디오클립에도 게시하여 청취자들이 반복 청취할 수 있도록 유도했습니다.이 전략을 통해 청취율은 점차 상승하기 시작했고, 오디오클립 구독자 수는 6개월 만에 3,000명에 이르는 큰 성과를 거둘 수 있었습니다. 이 경험을 통해 문제해결을 위해서 근본적 원인 파악과 분석적 접근이 중요하다는 것을 알 수 있었습니다.</t>
   </si>
   <si>
     <t>aT의 인재상 중 제가 부족하다고 생각하는 부분은 전문인 역량입니다. 공사 근무경험을 통해 농산물 수급 및 수입업무에 대한 실무경험과 전문지식을 쌓았지만, 수출, 유통, 식품산업에 대한 경험과 지식은 부족합니다. 따라서 이러한 편중된 전문성을 극복하고 aT의 전반적인 업무에 대한 이해도를 높이기 위한 노력이 필요하다 생각합니다.우선 aT의 농산물수출사업과 해외시장동향을 심층적으로 파악하여 수출 관련 지식을 보완하고자 합니다. 또 최근 농산물 유통에서 빅데이터와 인공지능 기술의 활용이 확대되고 있는 만큼 이러한 기술들을 적극적으로 학습하여 유통과정의 효율성을 높일 수 있는 방안을 모색하겠습니다. 더불어 한류의 영향으로 빠르게 성장하고 있는 식품산업 트렌드를 분석하고 연구하여 식품분야의 전문지식 또한 갖추겠습니다.이러한 노력으로 수출, 유통, 식품산업의 전문성을 균형 있게 키움으로써, aT의 모든 업무를 아우르는 전문가로 성장해 공사의 목표 달성에 기여해 나가겠습니다.</t>
   </si>
   <si>
-    <t>공사 인턴으로 근무하며, 조직 경영 실적 평가와 내부 성과관리에 관한 업무를 경험하고 행정 업무역량을 쌓았습니다. 이 과정에서, 학창 시절 배운 경영 전략 이론들을 실무에 적용하며 전반적인 성과관리 시스템을 파악할 수 있었습니다. 또한, 동종업계의 경영 평가 보고서를 엑셀에 취합하고, 30개가 넘는 부서의 성과지표 보고서를 정확하게 관리하여, 기업 간 성과 비교를 효율적으로 할 수 있도록 지원하였고, 데이터를 바탕으로 기업 간 강약점 분석 역량을 키울 수 있었습니다. 또한, 재단 인턴 당시 외국인 내방객들을 응대하며 영어, 중국어, 일본어 의사소통 능력 및 홍보물 경험을 쌓았습니다.이를 바탕으로 해외 시장에서 한국 농수산식품의 우수성과 경쟁력을 효과적으로 홍보하고, 국제 무대에서 해외의 수요기업에 알리기 위한 지속적인 소통에 기여할 수 있을 것입니다. 해외 기업과의 전략적 협력관계를 통해 한국농수산식품유통공사가 글로벌 농수산 강국으로 자리매김하는 데 이바지하겠습니다.</t>
-  </si>
-  <si>
     <t>한중 교류캠프에서 게임프로그램을 기획하던 중 서로 생각하는 개념이 불일치했지만, 타협안을 찾아 갈등을 해결한 경험이 있습니다.중국인 팀원들은 요즘 유행하는 게임으로 구성하는 데 주력했지만, 저와 한국인 팀원들은 이 캠프의 참가자 중 중국인 선생님이 계시기에 참여율을 높일 수 있는 방안을 제시했기 때문입니다. 의견 일치가 이루어지지 않는 상황에서 의사소통까지 원활하지 않았기에, 팀장으로서 긴장된 분위기를 전환하고자 각자가 생각하는 게임을 해보자고 제안했습니다. 처음에는 어색했지만, 각 게임의 장점만 뽑아 하나의 게임으로 기획하자는 타협점을 찾을 수 있었습니다. 이후 회의에서 구체적으로 역할을 나누었고, 팀원들의 이해도를 높이기 위해 채팅방에 회의 내용을 한국어, 중국어로 요약하여 공유하였습니다. 6명의 팀원이 적극적으로 참여한 덕분에 팀원 모두가 만족하는 게임 프로그램을 기획하였고, 그 결과 10개의 팀 중 70명의 만족도가 가장 높은 프로그램으로 선정될 수 있었습니다.</t>
-  </si>
-  <si>
-    <t>재단 인턴 당시, 100명의 외국인 서포터즈들의 과제를 평가하는 업무를 수행하던 중 둘째 달부터 참여도가 떨어지는 문제가 발생했습니다. 전체의 50%에 해당하는 많은 인원에게 상품을 줬었기에 상품을 못 받은 사람들의 불만이 컴플레인의 원인이라고 파악하였습니다. 하지만 다음 달에도 지속되었기에, 5명의 서포터즈에게 따로 이유를 물어본 후 당시 함께 과제물을 평가하던 담당자의 업무 과중으로 인해 시간이 부족했고, 그로 인해 실질적인 내용이나 창의성이 충분히 반영되지 못한 것이 원인임을 알게 되었습니다.이를 해결하기 위해 엑셀을 활용하여 불만과 요구사항을 유형별로 나눠 분석하였습니다. 평가 기준을 구체화하고, 서포터즈 운영계획서를 참고하여 활동 목적에 부합하는 평가 요소 5가지를 만들 수 있었습니다. 또한 서포터즈가 외국인인 점을 고려하여 예상 질문을 만들고 답변을 작성했습니다. 그 결과, 서포터즈의 민원이 90% 이상 줄었고, 높은 참여도와 함께 과제물 퀄리티도 높일 수 있었습니다.</t>
   </si>
   <si>
     <t>공사 인재상 중 업무에 필요한 전문 기술이 부족하다고 생각합니다.인턴 당시 매달 100명의 서포터즈가 만든 과제물을 하나의 PDF 파일에 취합하여 보고서 형식으로 제출하는 업무를 맡았습니다. 처음에는 PDF취합 방법을 몰랐기에 일일이 복사하여 붙여 넣으며 해당 업무에 시간을 많이 들였습니다. 이후 실무에서 활용도 높은 단축키와 OA기능 관련 강의를 수강하고, 출퇴근 시간에 20분씩 복습하며 암기하였습니다. 이를 통해 업무 시간을 50% 줄였고, 다른 업무의 효율을 높일 수 있었습니다. 한국농수산식품유통공사에 입사한 후, 부서의 업무를 수행하기 위한 문서 작성 및 농수산식품의 정보 관리를 위한 OA기술이 필수라고 생각합니다. 이를 위해 강의 수강뿐만 아니라 직접 해당 기술을 미리 적용해 봄으로써 맡은 업무에 어떤 기술이 필요한지 바로 적용할 수 있도록 숙지하고 연습하겠습니다. OA기술 활용도를 높여 농수산식품의 가치를 높일 수 있는 사업을 기획하고 운영하는 데 이바지하겠습니다.</t>
@@ -268,6 +256,47 @@
   </si>
   <si>
     <t>[앞에서 이끄는 리더에서 함께 여유를 만드는 리더로]중소기업의 해외 마케팅 지원 프로젝트를 시작하며 저는 리더로서 다양한 결과물을 만들고자 진행률에 집중했습니다. 온라인 홍보물 제작을 목표로 회의를 진행했지만, 회의 이후에 한 팀원이 프로젝트의 속도를 따라오기 힘들다며 프로젝트를 포기하겠다는 의사를 밝혔습니다.이는 진행 속도에 대한 의견 차이와 갈등으로 이어졌고, 저는 의욕적인 마음에 앞에서 이끌기만 했다는 것을 느꼈습니다. 그래서 의사소통을 보완하며 ‘여유로운 리더십’을 전달하려고 했습니다. 먼저, 회의 안건을 미리 공지하여 팀원들에게 생각할 여유를 주었습니다. 그리고 매 회의의 내용을 정리하여 진행 방향을 공유했습니다. 이를 통해 더 많은 아이디어가 도출되며 캐릭터 만화, 퀴즈 등 창의적인 홍보물로 팀 프로젝트 1위를 달성했습니다.팀 활동에 있어서 의사소통의 중요성을 크게 깨닫게 된 경험이었으며, 의사소통 부족 문제를 능동적으로 해결하는 리더십을 배울 수 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[트렌드를 반영한 아이디어로 만든 분석적 사고]현재 전 세계적으로 친환경 제품 소비를 추구하는 소비자가 증가하고 있으며, ESG 수출 장벽이 강화되는 추세입니다. 하지만 중소기업은 ESG 경영 전환에 애로사항이 있다는 보고서를 읽었고, 저는 중소벤처기업의 글로벌 경쟁력 강화에 도움이 되고자 정책 아이디어 공모전에 출전했습니다.중소기업이 ESG 경영에 있어 가장 필요하지만 어려운 점이 ‘친환경 패키지’라는 것을 파악해 ‘친환경 패키지 바우처 지원’의 아이디어를 구상했습니다. 제조 중소기업과 친환경 패키지 중소기업을 연결하여 상생협력 구축 체계를 만들고, 해외 진출을 도울 수 있는 아이디어를 제시했습니다. 아이디어는 구체적이고 실천 가능성이 높다는 피드백을 받으며 대상을 수상했습니다.저는 니즈 파악부터 개선 방안 기획까지의 과정에서 ‘분석적 사고’라는 직무 역량을 만들었습니다. 앞으로도 창의성을 바탕으로 개선 방안을 제시하고, 기업과 국민의 행복을 더하는 직원이 되겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국인유학생서포터즈 활동 당시, 중국인 팀원의 소극적인 태도로 인해 다른 팀원들이 그 친구의 퇴출을 주장하며 갈등이 발생했습니다. 당시 저는 팀원들의 의견을 존중하면서도 서포터즈 간의 원만한 관계 유지를 위해 갈등을 해결하고자 노력했습니다.우선 중국인 친구와의 면담을 통해 한국어가 서툴러 회의내용을 이해하고 맡은 업무 수행하는데 어려움을 겪고 있다는 점을 알게 되었습니다. 따라서 팀원들에게 상황을 설명하고, 퇴출보다는 그 친구의 역할을 조정하는 방향으로 함께 해결해보자고 설득했습니다. 이후 그 친구에게 회의내용을 중국어로 다시 설명해주고, 중국어 통번역 업무를 맡기며 역할을 재조정했습니다. 그 결과 중국인 친구는 활동에 적극적으로 참여하는 모습을 보였고, 팀원들 간의 관계도 원만하게 유지되었습니다.이 경험을 통해 갈등 상황속에서 소통과 배려의 중요성을 깨달았으며, 입사 후에도 부서원들과 상호 이해를 바탕으로 협력하여 조직에 긍정적인 영향을 미치고자 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사 인턴으로 근무하며, 조직 경영 실적 평가와 내부 성과관리에 관한 업무를 경험하고 행정 업무역량을 쌓았습니다. 이 과정에서, 학창 시절 배운 경영 전략 이론들을 실무에 적용하며 전반적인 성과관리 시스템을 파악할 수 있었습니다. 또한, 동종업계의 경영 평가 보고서를 엑셀에 취합하고, 30개가 넘는 부서의 성과지표 보고서를 정확하게 관리하여, 기업 간 성과 비교를 효율적으로 할 수 있도록 지원하였고, 데이터를 바탕으로 기업 간 강약점 분석 역량을 키울 수 있었습니다. 또한, 재단 인턴 당시 외국인 내방객들을 응대하며 영어, 중국어, 일본어 의사소통 능력 및 홍보물 경험을 쌓았습니다.이를 바탕으로 해외 시장에서 한국 농수산식품의 우수성과 경쟁력을 효과적으로 홍보하고, 국제 무대에서 해외의 수요기업에 알리기 위한 지속적인 소통에 기여할 수 있을 것입니다. 해외 기업과의 전략적 협력관계를 통해 한국농수산식품유통공사가 글로벌 농수산 강국으로 자리매김하는 데 이바지하겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">재단 인턴 당시, 100명의 외국인 서포터즈들의 과제를 평가하는 업무를 수행하던 중 둘째 달부터 참여도가 떨어지는 문제가 발생했습니다. 전체의 50%에 해당하는 많은 인원에게 상품을 줬었기에 상품을 못 받은 사람들의 불만이 컴플레인의 원인이라고 파악하였습니다. 하지만 다음 달에도 지속되었기에, 5명의 서포터즈에게 따로 이유를 물어본 후 당시 함께 과제물을 평가하던 담당자의 업무 과중으로 인해 시간이 부족했고, 그로 인해 실질적인 내용이나 창의성이 충분히 반영되지 못한 것이 원인임을 알게 되었습니다.이를 해결하기 위해 엑셀을 활용하여 불만과 요구사항을 유형별로 나눠 분석하였습니다. 평가 기준을 구체화하고, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서포터즈 운영계획서를 참고하여 활동 목적에 부합하는 평가 요소 5가지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 만들 수 있었습니다. 또한 서포터즈가 외국인인 점을 고려하여 예상 질문을 만들고 답변을 작성했습니다. 그 결과, 서포터즈의 민원이 90% 이상 줄었고, 높은 참여도와 함께 과제물 퀄리티도 높일 수 있었습니다.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +321,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -689,13 +727,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAEDBDC-11A1-46BD-93BE-A77FDF960F7C}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
@@ -754,19 +793,19 @@
         <v>42</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,16 +861,16 @@
         <v>49</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
@@ -890,16 +929,16 @@
         <v>49</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
@@ -958,16 +997,16 @@
         <v>49</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_test.xlsx
+++ b/data/input_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-auto-questionnaire\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7FE1F-D199-47E4-B491-C19DA1BE400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB0B192-CC50-49AD-9E3D-FAB44583574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39260" yWindow="3840" windowWidth="17080" windowHeight="16330" xr2:uid="{1494CCB1-EDDE-47A3-9579-60EB3E7365BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1494CCB1-EDDE-47A3-9579-60EB3E7365BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,14 +730,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAEDBDC-11A1-46BD-93BE-A77FDF960F7C}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="63.5" customWidth="1"/>
+    <col min="20" max="20" width="52.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
@@ -860,10 +864,10 @@
       <c r="R2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -873,7 +877,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,10 +932,10 @@
       <c r="R3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>73</v>
       </c>
       <c r="U3" s="1" t="s">

--- a/data/input_test.xlsx
+++ b/data/input_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-auto-questionnaire\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB0B192-CC50-49AD-9E3D-FAB44583574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AA6AC-5E45-45DB-9F9C-BB21D000C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1494CCB1-EDDE-47A3-9579-60EB3E7365BC}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1494CCB1-EDDE-47A3-9579-60EB3E7365BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -877,7 +877,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="218.4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,5 +1016,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/input_test.xlsx
+++ b/data/input_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-auto-questionnaire\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\민태희\Desktop\github\isbr-auto-questionnaire\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AA6AC-5E45-45DB-9F9C-BB21D000C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351C834D-37BD-4E96-85FA-D13445AEDF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1494CCB1-EDDE-47A3-9579-60EB3E7365BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1494CCB1-EDDE-47A3-9579-60EB3E7365BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>수험번호</t>
   </si>
@@ -44,12 +44,6 @@
     <t>이름</t>
   </si>
   <si>
-    <t>지원분야</t>
-  </si>
-  <si>
-    <t>신입(5급) 사무행정 일반(나주)</t>
-  </si>
-  <si>
     <t>C0100001</t>
   </si>
   <si>
@@ -66,156 +60,6 @@
   </si>
   <si>
     <t>최정민</t>
-  </si>
-  <si>
-    <t>과목명</t>
-  </si>
-  <si>
-    <t>무역실무</t>
-  </si>
-  <si>
-    <t>경영학원론</t>
-  </si>
-  <si>
-    <t>경영전략</t>
-  </si>
-  <si>
-    <t>교육내용</t>
-  </si>
-  <si>
-    <t>수출입 사전준비 등과 같은 수출입의 절차와 방식에 대한 지식 습득</t>
-  </si>
-  <si>
-    <t>경영학적 사고를 통해 기업의 본질과 경영과정을 이해하고 환경변화에 대응한 기업 경영 전반에 관한 개념과 이론을 익힘</t>
-  </si>
-  <si>
-    <t>기업의 경영목표, 경영환경을 분석하고, 경영 계획 수립 관련 이론 학습</t>
-  </si>
-  <si>
-    <t>무역법규</t>
-  </si>
-  <si>
-    <t>국제무역계약을 수행하기 위하여 필요한 무역관련법규(대외무역법, 관세법, 외국환거래법) 학습</t>
-  </si>
-  <si>
-    <t>마케팅관리론</t>
-  </si>
-  <si>
-    <t>마케팅의 기본 개념과 변화하고 있는 시장환경, 소비자 행동에 대한 다각적인 모델을 학습하고 제품, 가격, 유통 촉진 등의 마케팅 활동을 활용하여 기업전략을 수립하는 기초를 학습함</t>
-  </si>
-  <si>
-    <t>조직행위론</t>
-  </si>
-  <si>
-    <t>조직 내 구성원의 행동과 그 영향을 주는 요소를 이해하고 개발</t>
-  </si>
-  <si>
-    <t>고급영어회화</t>
-  </si>
-  <si>
-    <t>국제화 시대에 대처하여 실용적인 어휘와 표현을 학습하고, 다양한 주제에 대해 자신의 의견을 표현하는 연습을 하며 높은 외국어 능력 함양</t>
-  </si>
-  <si>
-    <t>인적자원관리</t>
-  </si>
-  <si>
-    <t>인적자원관리 학습을 통해 기업 경쟁우위 확보를 위한 인적자원 관리의 시스템과 제도, 주요 활동 및 관련 이론들을 습득함</t>
-  </si>
-  <si>
-    <t>재무회계</t>
-  </si>
-  <si>
-    <t>수요분석, 수요개발 등 재무 업무에 기반이 되는 개념 학습</t>
-  </si>
-  <si>
-    <t>무역계약론</t>
-  </si>
-  <si>
-    <t>무역클레임 발생 시 해결을 위한 상사중재제도, 정형거래조건 학습</t>
-  </si>
-  <si>
-    <t>경영조직론</t>
-  </si>
-  <si>
-    <t>조직이론, 전략과 조직설계, 조직구조, 환경에의 대응, 조직 간 관계, 조직 수명주기 등의 통제를 다루고 학습함</t>
-  </si>
-  <si>
-    <t>마케팅원론</t>
-  </si>
-  <si>
-    <t>시장과 소비자에 대한 정보를 분석 및 관련 이론 학습</t>
-  </si>
-  <si>
-    <t>근무기관명</t>
-  </si>
-  <si>
-    <t>근무부서</t>
-  </si>
-  <si>
-    <t>고용형태</t>
-  </si>
-  <si>
-    <t>시작일</t>
-  </si>
-  <si>
-    <t>종료일</t>
-  </si>
-  <si>
-    <t>담당업무</t>
-  </si>
-  <si>
-    <t>직급(위)</t>
-  </si>
-  <si>
-    <t>한국농수산식품유통공사</t>
-  </si>
-  <si>
-    <t>식량육성팀</t>
-  </si>
-  <si>
-    <t>청년인턴</t>
-  </si>
-  <si>
-    <t>2023-05-30</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2023년 국산밀 정부비축 수매 행정지원</t>
-  </si>
-  <si>
-    <t>인턴</t>
-  </si>
-  <si>
-    <t>aT한국농수산식품유통공사</t>
-  </si>
-  <si>
-    <t>수급기획부</t>
-  </si>
-  <si>
-    <t>2021-08-02</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>해외수입정보조사 및 국제곡물조사 업무 보조</t>
-  </si>
-  <si>
-    <t>ㅇㅇ공사</t>
-  </si>
-  <si>
-    <t>평가조직부</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-11-30</t>
-  </si>
-  <si>
-    <t>사무보조</t>
   </si>
   <si>
     <t>[다각도로 원인을 파악하고, 근본적으로 해결하는 과정]멘토단에서 초, 중, 고등학생들을 위한 전공 프로그램을 운영하며 프로그램이 예상보다 빨리 끝나 공백이 발생한다는 문제가 있었습니다. 처음엔 단순히 수업의 양이 부족하다고 생각하여 내용을 추가했지만, 문제는 계속 반복되었습니다. 원인을 정확하게 파악하기 위해 입학처 선생님과 수강생에게 피드백을 받았고, 수업을 녹화해 분석했습니다.피드백을 통해 학년에 따른 수업 내용의 차이가 필요함을 알게 되었고, 녹화를 통해 학생들의 질문이 예상보다 적다는 공통점을 파악했습니다. 이에 학년별 프로그램 차별화를 통해 수업의 질을 높이고, 학생들의 흥미를 자극하는 수업을 기획했습니다. 이를 통해 수업 공백을 줄였고, 학생들의 만족도를 약 50%에서 90%로 향상할 수 있었습니다.앞으로의 업무 과정에서 발생하는 문제의 원인은 하나보다 많을 것입니다. 여러 측면에서 문제의 원인을 파악하고, 이를 근본적으로 보완하며 최선의 결과에 도달하겠습니다.</t>
@@ -728,20 +572,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAEDBDC-11A1-46BD-93BE-A77FDF960F7C}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.5" customWidth="1"/>
-    <col min="20" max="20" width="52.09765625" customWidth="1"/>
+    <col min="3" max="3" width="63.5" customWidth="1"/>
+    <col min="4" max="4" width="52.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -749,268 +592,76 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="218.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>70</v>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="218.4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
